--- a/survey_data/SurveySummary_08192016.xlsx
+++ b/survey_data/SurveySummary_08192016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="11340" windowHeight="6800" tabRatio="768"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="33240" windowHeight="19200" tabRatio="768" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Survey Tree Map" sheetId="56" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <sheet name="Question 54" sheetId="54" r:id="rId37"/>
     <sheet name="Question 55" sheetId="55" r:id="rId38"/>
   </sheets>
-  <calcPr calcId="101716" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="216">
   <si>
     <t>Py-ART Roadmap Survey</t>
   </si>
@@ -702,6 +702,9 @@
   <si>
     <t>Py-ART RoadMap Survey Map</t>
   </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
 </sst>
 </file>
 
@@ -711,7 +714,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="mmm\ d\,\ yyyy\ h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Microsoft Sans Serif"/>
@@ -755,6 +758,18 @@
       <color theme="0"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Microsoft Sans Serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Microsoft Sans Serif"/>
     </font>
   </fonts>
   <fills count="16">
@@ -853,10 +868,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -910,6 +933,9 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -932,7 +958,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2028,11 +2062,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2088313128"/>
-        <c:axId val="-2088309736"/>
+        <c:axId val="-2079823976"/>
+        <c:axId val="-2080054952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2088313128"/>
+        <c:axId val="-2079823976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088309736"/>
+        <c:crossAx val="-2080054952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2077,7 +2111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088309736"/>
+        <c:axId val="-2080054952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088313128"/>
+        <c:crossAx val="-2079823976"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2801,22 +2835,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.67</c:v>
+                  <c:v>2.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.67</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2831,11 +2865,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2094606776"/>
-        <c:axId val="-2094603352"/>
+        <c:axId val="-2092933080"/>
+        <c:axId val="-2075862952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2094606776"/>
+        <c:axId val="-2092933080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,7 +2904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094603352"/>
+        <c:crossAx val="-2075862952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2880,7 +2914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094603352"/>
+        <c:axId val="-2075862952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,7 +2959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094606776"/>
+        <c:crossAx val="-2092933080"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5174,11 +5208,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2087113880"/>
-        <c:axId val="-2087110472"/>
+        <c:axId val="-2081853208"/>
+        <c:axId val="-2081909496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2087113880"/>
+        <c:axId val="-2081853208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5213,7 +5247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087110472"/>
+        <c:crossAx val="-2081909496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5223,7 +5257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087110472"/>
+        <c:axId val="-2081909496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5268,7 +5302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087113880"/>
+        <c:crossAx val="-2081853208"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5511,11 +5545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2087068184"/>
-        <c:axId val="-2087064792"/>
+        <c:axId val="-2085867032"/>
+        <c:axId val="-2080293000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2087068184"/>
+        <c:axId val="-2085867032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5550,7 +5584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087064792"/>
+        <c:crossAx val="-2080293000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5560,7 +5594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087064792"/>
+        <c:axId val="-2080293000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5605,7 +5639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087068184"/>
+        <c:crossAx val="-2085867032"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5788,11 +5822,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2087024520"/>
-        <c:axId val="-2087021144"/>
+        <c:axId val="2096040632"/>
+        <c:axId val="-2086365416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2087024520"/>
+        <c:axId val="2096040632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5827,7 +5861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087021144"/>
+        <c:crossAx val="-2086365416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5837,7 +5871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087021144"/>
+        <c:axId val="-2086365416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5882,7 +5916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087024520"/>
+        <c:crossAx val="2096040632"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6325,19 +6359,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6352,11 +6386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2086929672"/>
-        <c:axId val="-2086926264"/>
+        <c:axId val="-2076630808"/>
+        <c:axId val="-2076607880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2086929672"/>
+        <c:axId val="-2076630808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6391,7 +6425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086926264"/>
+        <c:crossAx val="-2076607880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6401,7 +6435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086926264"/>
+        <c:axId val="-2076607880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6446,7 +6480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086929672"/>
+        <c:crossAx val="-2076630808"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8546,11 +8580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2087314488"/>
-        <c:axId val="-2087317912"/>
+        <c:axId val="-2079347640"/>
+        <c:axId val="-2080064328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2087314488"/>
+        <c:axId val="-2079347640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8585,7 +8619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087317912"/>
+        <c:crossAx val="-2080064328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8595,7 +8629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087317912"/>
+        <c:axId val="-2080064328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8640,7 +8674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087314488"/>
+        <c:crossAx val="-2079347640"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8883,11 +8917,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2087359912"/>
-        <c:axId val="-2087363320"/>
+        <c:axId val="-2082123448"/>
+        <c:axId val="-2082120024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2087359912"/>
+        <c:axId val="-2082123448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8922,7 +8956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087363320"/>
+        <c:crossAx val="-2082120024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8932,7 +8966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087363320"/>
+        <c:axId val="-2082120024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8977,7 +9011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087359912"/>
+        <c:crossAx val="-2082123448"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9160,11 +9194,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2087403816"/>
-        <c:axId val="-2087407240"/>
+        <c:axId val="-2082079320"/>
+        <c:axId val="-2082075928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2087403816"/>
+        <c:axId val="-2082079320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9199,7 +9233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087407240"/>
+        <c:crossAx val="-2082075928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9209,7 +9243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087407240"/>
+        <c:axId val="-2082075928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9254,7 +9288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087403816"/>
+        <c:crossAx val="-2082079320"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9697,19 +9731,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.43</c:v>
+                  <c:v>3.428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.36</c:v>
+                  <c:v>1.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.45</c:v>
+                  <c:v>3.909090909090909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.17</c:v>
+                  <c:v>2.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.69</c:v>
+                  <c:v>1.461538461538461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9724,11 +9758,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2087489448"/>
-        <c:axId val="-2087492872"/>
+        <c:axId val="-2082189528"/>
+        <c:axId val="-2082287352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2087489448"/>
+        <c:axId val="-2082189528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9763,7 +9797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087492872"/>
+        <c:crossAx val="-2082287352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9773,7 +9807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087492872"/>
+        <c:axId val="-2082287352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9818,7 +9852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087489448"/>
+        <c:crossAx val="-2082189528"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10653,11 +10687,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2092925352"/>
-        <c:axId val="-2092928760"/>
+        <c:axId val="-2082252040"/>
+        <c:axId val="-2082248632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2092925352"/>
+        <c:axId val="-2082252040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10692,7 +10726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092928760"/>
+        <c:crossAx val="-2082248632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10702,7 +10736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092928760"/>
+        <c:axId val="-2082248632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10747,7 +10781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092925352"/>
+        <c:crossAx val="-2082252040"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11172,19 +11206,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -11202,11 +11236,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2092937544"/>
-        <c:axId val="-2092940984"/>
+        <c:axId val="-2082379672"/>
+        <c:axId val="-2082376264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2092937544"/>
+        <c:axId val="-2082379672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11241,7 +11275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092940984"/>
+        <c:crossAx val="-2082376264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11251,7 +11285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092940984"/>
+        <c:axId val="-2082376264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11296,7 +11330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092937544"/>
+        <c:crossAx val="-2082379672"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12379,15 +12413,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>879475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12787,14 +12821,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13329,7 +13363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -13895,38 +13929,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -13937,10 +13971,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2">
@@ -13951,10 +13985,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2">
@@ -13965,10 +13999,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2">
@@ -13979,10 +14013,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2">
@@ -13993,10 +14027,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
@@ -14007,10 +14041,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2">
@@ -14021,10 +14055,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2">
@@ -14035,10 +14069,10 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2">
@@ -14049,13 +14083,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="37">
         <v>3</v>
       </c>
       <c r="D12" s="4">
@@ -14063,13 +14097,13 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33">
         <v>32</v>
       </c>
       <c r="D13" s="5">
@@ -14078,6 +14112,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -14086,11 +14125,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14123,38 +14157,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -14165,10 +14199,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2">
@@ -14179,10 +14213,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2">
@@ -14193,10 +14227,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2">
@@ -14207,10 +14241,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2">
@@ -14221,10 +14255,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="2">
@@ -14235,10 +14269,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2">
@@ -14249,10 +14283,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2">
@@ -14263,10 +14297,10 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="2">
@@ -14277,13 +14311,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="37">
         <v>3</v>
       </c>
       <c r="D12" s="4">
@@ -14291,13 +14325,13 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33">
         <v>32</v>
       </c>
       <c r="D13" s="5">
@@ -14306,6 +14340,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -14314,11 +14353,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14351,38 +14385,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -14393,10 +14427,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2">
@@ -14407,10 +14441,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2">
@@ -14421,13 +14455,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="37">
         <v>3</v>
       </c>
       <c r="D6" s="4">
@@ -14435,13 +14469,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="33">
         <v>32</v>
       </c>
       <c r="D7" s="5">
@@ -14477,8 +14511,8 @@
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -14489,122 +14523,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -14657,10 +14691,10 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="7">
@@ -14713,10 +14747,10 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="7">
@@ -14769,10 +14803,10 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="7">
@@ -14825,10 +14859,10 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="7">
@@ -14881,10 +14915,10 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="7">
@@ -14937,10 +14971,10 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="7">
@@ -14993,10 +15027,10 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="7">
@@ -15049,10 +15083,10 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="7">
@@ -15105,10 +15139,10 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="7">
@@ -15161,10 +15195,10 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="7">
@@ -15217,10 +15251,10 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="7">
@@ -15273,10 +15307,10 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="7">
@@ -15329,10 +15363,10 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="7">
@@ -15385,55 +15419,55 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="36" t="s">
+      <c r="P17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="37">
         <v>3</v>
       </c>
       <c r="R17" s="4">
@@ -15441,55 +15475,55 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="32" t="s">
+      <c r="M18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="32" t="s">
+      <c r="N18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="33">
         <v>32</v>
       </c>
       <c r="R18" s="5">
@@ -15498,6 +15532,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:B13"/>
@@ -15509,13 +15550,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A17:Q17"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15548,38 +15582,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -15590,10 +15624,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="2">
@@ -15604,10 +15638,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="2">
@@ -15618,10 +15652,10 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="2">
@@ -15632,13 +15666,13 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>1</v>
       </c>
       <c r="D7" s="4">
@@ -15646,13 +15680,13 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33">
         <v>34</v>
       </c>
       <c r="D8" s="5">
@@ -15727,7 +15761,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15738,38 +15772,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -15780,10 +15814,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2">
@@ -15794,10 +15828,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2">
@@ -15808,10 +15842,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="2">
@@ -15822,13 +15856,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>3</v>
       </c>
       <c r="D7" s="4">
@@ -15836,13 +15870,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33">
         <v>32</v>
       </c>
       <c r="D8" s="5">
@@ -15877,10 +15911,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="I4" sqref="I4:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15891,74 +15925,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -15987,10 +16021,10 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="7">
@@ -16012,17 +16046,18 @@
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>3.67</v>
+        <f>((C4*C$12)+(D4*$D$12)+(E4*E12)+(F4*$F$12)+(G4*$G$12))/SUM(C4:G4)</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="7">
@@ -16044,17 +16079,18 @@
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <v>3</v>
+        <f t="shared" ref="I5:I9" si="0">((C5*C$12)+(D5*$D$12)+(E5*E13)+(F5*$F$12)+(G5*$G$12))/SUM(C5:G5)</f>
+        <v>2</v>
       </c>
       <c r="J5" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="7">
@@ -16076,17 +16112,18 @@
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="7">
@@ -16108,17 +16145,18 @@
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>3.67</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J7" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="7">
@@ -16140,17 +16178,18 @@
         <v>1</v>
       </c>
       <c r="I8" s="8">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="7">
@@ -16172,38 +16211,39 @@
         <v>1</v>
       </c>
       <c r="I9" s="8">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="J9" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="37">
         <v>3</v>
       </c>
       <c r="J10" s="4">
@@ -16211,53 +16251,74 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="33">
         <v>32</v>
       </c>
       <c r="J11" s="5">
         <v>32</v>
       </c>
     </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="31">
+        <v>5</v>
+      </c>
+      <c r="D12" s="31">
+        <v>4</v>
+      </c>
+      <c r="E12" s="31">
+        <v>3</v>
+      </c>
+      <c r="F12" s="31">
+        <v>2</v>
+      </c>
+      <c r="G12" s="31">
+        <v>1</v>
+      </c>
+      <c r="H12" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -16287,38 +16348,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -16329,10 +16390,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2">
@@ -16343,10 +16404,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2">
@@ -16357,10 +16418,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2">
@@ -16371,13 +16432,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>24</v>
       </c>
       <c r="D7" s="4">
@@ -16385,13 +16446,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33">
         <v>11</v>
       </c>
       <c r="D8" s="5">
@@ -16440,38 +16501,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -16482,10 +16543,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2">
@@ -16496,10 +16557,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2">
@@ -16510,10 +16571,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2">
@@ -16524,10 +16585,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2">
@@ -16538,10 +16599,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
@@ -16552,10 +16613,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2">
@@ -16566,10 +16627,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2">
@@ -16580,10 +16641,10 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2">
@@ -16594,13 +16655,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="37">
         <v>3</v>
       </c>
       <c r="D12" s="4">
@@ -16608,13 +16669,13 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33">
         <v>32</v>
       </c>
       <c r="D13" s="5">
@@ -16623,6 +16684,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -16631,11 +16697,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16668,38 +16729,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -16710,10 +16771,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2">
@@ -16724,10 +16785,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2">
@@ -16738,10 +16799,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2">
@@ -16752,10 +16813,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2">
@@ -16766,10 +16827,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="2">
@@ -16780,10 +16841,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2">
@@ -16794,10 +16855,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2">
@@ -16808,10 +16869,10 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="2">
@@ -16822,13 +16883,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="37">
         <v>3</v>
       </c>
       <c r="D12" s="4">
@@ -16836,13 +16897,13 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33">
         <v>32</v>
       </c>
       <c r="D13" s="5">
@@ -16851,6 +16912,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -16859,11 +16925,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16882,7 +16943,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -16893,38 +16954,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -16935,10 +16996,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2">
@@ -16949,10 +17010,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2">
@@ -16963,13 +17024,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="37">
         <v>35</v>
       </c>
       <c r="D6" s="4">
@@ -16977,13 +17038,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="33">
         <v>0</v>
       </c>
       <c r="D7" s="5">
@@ -17031,38 +17092,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -17073,10 +17134,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="2">
@@ -17087,10 +17148,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="2">
@@ -17101,10 +17162,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="2">
@@ -17115,10 +17176,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="2">
@@ -17129,13 +17190,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="37">
         <v>3</v>
       </c>
       <c r="D8" s="4">
@@ -17143,13 +17204,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="33">
         <v>32</v>
       </c>
       <c r="D9" s="5">
@@ -17199,38 +17260,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -17241,10 +17302,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="2">
@@ -17255,10 +17316,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="2">
@@ -17269,10 +17330,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="2">
@@ -17283,13 +17344,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>3</v>
       </c>
       <c r="D7" s="4">
@@ -17297,13 +17358,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33">
         <v>32</v>
       </c>
       <c r="D8" s="5">
@@ -17352,38 +17413,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -17394,10 +17455,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="2">
@@ -17408,10 +17469,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="2">
@@ -17422,10 +17483,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="2">
@@ -17436,10 +17497,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="2">
@@ -17450,13 +17511,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="37">
         <v>3</v>
       </c>
       <c r="D8" s="4">
@@ -17464,13 +17525,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="33">
         <v>32</v>
       </c>
       <c r="D9" s="5">
@@ -17520,98 +17581,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="34" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -17652,10 +17713,10 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="7">
@@ -17696,10 +17757,10 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="7">
@@ -17740,10 +17801,10 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="7">
@@ -17784,10 +17845,10 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="7">
@@ -17828,10 +17889,10 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>104</v>
       </c>
       <c r="C8" s="7">
@@ -17872,10 +17933,10 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="7">
@@ -17916,10 +17977,10 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>106</v>
       </c>
       <c r="C10" s="7">
@@ -17960,10 +18021,10 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>107</v>
       </c>
       <c r="C11" s="7">
@@ -18004,10 +18065,10 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="7">
@@ -18048,43 +18109,43 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="37">
         <v>3</v>
       </c>
       <c r="N13" s="4">
@@ -18092,43 +18153,43 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="33">
         <v>32</v>
       </c>
       <c r="N14" s="5">
@@ -18183,122 +18244,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="34" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -18351,10 +18412,10 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="7">
@@ -18407,10 +18468,10 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="7">
@@ -18463,10 +18524,10 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="7">
@@ -18519,10 +18580,10 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="7">
@@ -18575,10 +18636,10 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="7">
@@ -18631,10 +18692,10 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="7">
@@ -18687,10 +18748,10 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="7">
@@ -18743,10 +18804,10 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="7">
@@ -18799,10 +18860,10 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="7">
@@ -18855,10 +18916,10 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="7">
@@ -18911,10 +18972,10 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="7">
@@ -18967,10 +19028,10 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="7">
@@ -19023,10 +19084,10 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="7">
@@ -19079,55 +19140,55 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="36" t="s">
+      <c r="P17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="37">
         <v>3</v>
       </c>
       <c r="R17" s="4">
@@ -19135,55 +19196,55 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="32" t="s">
+      <c r="M18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="32" t="s">
+      <c r="N18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="33">
         <v>32</v>
       </c>
       <c r="R18" s="5">
@@ -19192,6 +19253,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:B13"/>
@@ -19203,13 +19271,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A17:Q17"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19242,38 +19303,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -19284,10 +19345,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="2">
@@ -19298,10 +19359,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="2">
@@ -19312,10 +19373,10 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="2">
@@ -19326,13 +19387,13 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>1</v>
       </c>
       <c r="D7" s="4">
@@ -19340,13 +19401,13 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33">
         <v>34</v>
       </c>
       <c r="D8" s="5">
@@ -19435,38 +19496,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -19477,10 +19538,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C4" s="2">
@@ -19491,10 +19552,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="2">
@@ -19505,10 +19566,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="2">
@@ -19519,10 +19580,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="2">
@@ -19533,13 +19594,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="37">
         <v>3</v>
       </c>
       <c r="D8" s="4">
@@ -19547,13 +19608,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="33">
         <v>32</v>
       </c>
       <c r="D9" s="5">
@@ -19589,10 +19650,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -19603,74 +19664,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -19699,10 +19760,10 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="7">
@@ -19724,17 +19785,18 @@
         <v>1</v>
       </c>
       <c r="I4" s="8">
-        <v>1.5</v>
+        <f>((C4*C$11)+(D4*$D$11)+(E4*E11)+(F4*$F$11)+(G4*$G$11))/SUM(C4:G4)</f>
+        <v>4.5</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="7">
@@ -19756,6 +19818,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="8">
+        <f t="shared" ref="I5:I8" si="0">((C5*C$11)+(D5*$D$11)+(E5*E12)+(F5*$F$11)+(G5*$G$11))/SUM(C5:G5)</f>
         <v>3</v>
       </c>
       <c r="J5" s="3">
@@ -19763,10 +19826,10 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="7">
@@ -19788,17 +19851,18 @@
         <v>1</v>
       </c>
       <c r="I6" s="8">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="7">
@@ -19820,17 +19884,18 @@
         <v>1</v>
       </c>
       <c r="I7" s="8">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
       <c r="J7" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="7">
@@ -19852,38 +19917,39 @@
         <v>1</v>
       </c>
       <c r="I8" s="8">
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>4.5</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="37">
         <v>3</v>
       </c>
       <c r="J9" s="4">
@@ -19891,52 +19957,73 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="33">
         <v>32</v>
       </c>
       <c r="J10" s="5">
         <v>32</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="31">
+        <v>5</v>
+      </c>
+      <c r="D11" s="31">
+        <v>4</v>
+      </c>
+      <c r="E11" s="31">
+        <v>3</v>
+      </c>
+      <c r="F11" s="31">
+        <v>2</v>
+      </c>
+      <c r="G11" s="31">
+        <v>1</v>
+      </c>
+      <c r="H11" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:I9"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:I9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -19966,38 +20053,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -20008,10 +20095,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2">
@@ -20022,10 +20109,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2">
@@ -20036,10 +20123,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2">
@@ -20050,10 +20137,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2">
@@ -20064,10 +20151,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
@@ -20078,10 +20165,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2">
@@ -20092,10 +20179,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2">
@@ -20106,10 +20193,10 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2">
@@ -20120,13 +20207,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="37">
         <v>15</v>
       </c>
       <c r="D12" s="4">
@@ -20134,13 +20221,13 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33">
         <v>20</v>
       </c>
       <c r="D13" s="5">
@@ -20149,6 +20236,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -20157,11 +20249,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20194,38 +20281,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -20236,10 +20323,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2">
@@ -20250,10 +20337,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2">
@@ -20264,10 +20351,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2">
@@ -20278,10 +20365,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2">
@@ -20292,10 +20379,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="2">
@@ -20306,10 +20393,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2">
@@ -20320,10 +20407,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2">
@@ -20334,10 +20421,10 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="2">
@@ -20348,13 +20435,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="37">
         <v>15</v>
       </c>
       <c r="D12" s="4">
@@ -20362,13 +20449,13 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33">
         <v>20</v>
       </c>
       <c r="D13" s="5">
@@ -20377,6 +20464,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -20385,11 +20477,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20422,16 +20509,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -20439,24 +20526,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -20467,10 +20554,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2">
@@ -20481,10 +20568,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2">
@@ -20495,10 +20582,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2">
@@ -20509,13 +20596,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>11</v>
       </c>
       <c r="D7" s="4">
@@ -20523,13 +20610,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33">
         <v>24</v>
       </c>
       <c r="D8" s="5">
@@ -20578,38 +20665,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -20620,10 +20707,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="2">
@@ -20634,10 +20721,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="2">
@@ -20648,10 +20735,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="2">
@@ -20662,10 +20749,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="2">
@@ -20676,13 +20763,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="37">
         <v>15</v>
       </c>
       <c r="D8" s="4">
@@ -20690,13 +20777,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="33">
         <v>20</v>
       </c>
       <c r="D9" s="5">
@@ -20746,38 +20833,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -20788,10 +20875,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="2">
@@ -20802,10 +20889,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="2">
@@ -20816,10 +20903,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="2">
@@ -20830,13 +20917,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>15</v>
       </c>
       <c r="D7" s="4">
@@ -20844,13 +20931,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33">
         <v>20</v>
       </c>
       <c r="D8" s="5">
@@ -20899,38 +20986,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -20941,10 +21028,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="2">
@@ -20955,10 +21042,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="2">
@@ -20969,10 +21056,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="2">
@@ -20983,10 +21070,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="2">
@@ -20997,13 +21084,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="37">
         <v>14</v>
       </c>
       <c r="D8" s="4">
@@ -21011,13 +21098,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="33">
         <v>21</v>
       </c>
       <c r="D9" s="5">
@@ -21067,98 +21154,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="34" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -21199,10 +21286,10 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="7">
@@ -21243,10 +21330,10 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="7">
@@ -21287,10 +21374,10 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="7">
@@ -21331,10 +21418,10 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="7">
@@ -21375,10 +21462,10 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>104</v>
       </c>
       <c r="C8" s="7">
@@ -21419,10 +21506,10 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="7">
@@ -21463,10 +21550,10 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>106</v>
       </c>
       <c r="C10" s="7">
@@ -21507,10 +21594,10 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>107</v>
       </c>
       <c r="C11" s="7">
@@ -21551,10 +21638,10 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="7">
@@ -21595,43 +21682,43 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="37">
         <v>14</v>
       </c>
       <c r="N13" s="4">
@@ -21639,43 +21726,43 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="33">
         <v>21</v>
       </c>
       <c r="N14" s="5">
@@ -21718,8 +21805,8 @@
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -21730,122 +21817,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="34" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -21898,10 +21985,10 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="7">
@@ -21954,10 +22041,10 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="7">
@@ -22010,10 +22097,10 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="7">
@@ -22066,10 +22153,10 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="7">
@@ -22122,10 +22209,10 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="7">
@@ -22178,10 +22265,10 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="7">
@@ -22234,10 +22321,10 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="7">
@@ -22290,10 +22377,10 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="7">
@@ -22346,10 +22433,10 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="7">
@@ -22402,10 +22489,10 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="7">
@@ -22458,10 +22545,10 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="7">
@@ -22514,10 +22601,10 @@
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="7">
@@ -22570,10 +22657,10 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="7">
@@ -22626,55 +22713,55 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="36" t="s">
+      <c r="P17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="37">
         <v>15</v>
       </c>
       <c r="R17" s="4">
@@ -22682,55 +22769,55 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="32" t="s">
+      <c r="M18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="32" t="s">
+      <c r="N18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="33">
         <v>20</v>
       </c>
       <c r="R18" s="5">
@@ -22739,6 +22826,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:B13"/>
@@ -22750,13 +22844,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A17:Q17"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22777,7 +22864,7 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -22790,38 +22877,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -22832,10 +22919,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="2">
@@ -22846,10 +22933,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="2">
@@ -22860,10 +22947,10 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="2">
@@ -22874,13 +22961,13 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>10</v>
       </c>
       <c r="D7" s="4">
@@ -22888,13 +22975,13 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33">
         <v>25</v>
       </c>
       <c r="D8" s="5">
@@ -23092,7 +23179,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -23103,38 +23190,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -23145,10 +23232,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C4" s="2">
@@ -23159,10 +23246,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="2">
@@ -23173,10 +23260,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="2">
@@ -23187,10 +23274,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="2">
@@ -23201,13 +23288,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="37">
         <v>15</v>
       </c>
       <c r="D8" s="4">
@@ -23215,13 +23302,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="33">
         <v>20</v>
       </c>
       <c r="D9" s="5">
@@ -23257,10 +23344,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="2" tint="-0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -23271,74 +23358,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -23367,10 +23454,10 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="7">
@@ -23392,17 +23479,18 @@
         <v>1</v>
       </c>
       <c r="I4" s="8">
-        <v>3.43</v>
+        <f>((C4*C$11)+(D4*$D$11)+(E4*E11)+(F4*$F$11)+(G4*$G$11))/SUM(C4:G4)</f>
+        <v>3.4285714285714284</v>
       </c>
       <c r="J4" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="7">
@@ -23424,17 +23512,18 @@
         <v>1</v>
       </c>
       <c r="I5" s="8">
-        <v>2.36</v>
+        <f t="shared" ref="I5:I8" si="0">((C5*C$11)+(D5*$D$11)+(E5*E12)+(F5*$F$11)+(G5*$G$11))/SUM(C5:G5)</f>
+        <v>1.7142857142857142</v>
       </c>
       <c r="J5" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="7">
@@ -23456,17 +23545,18 @@
         <v>4</v>
       </c>
       <c r="I6" s="8">
-        <v>4.45</v>
+        <f t="shared" si="0"/>
+        <v>3.9090909090909092</v>
       </c>
       <c r="J6" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="7">
@@ -23488,17 +23578,18 @@
         <v>3</v>
       </c>
       <c r="I7" s="8">
-        <v>3.17</v>
+        <f t="shared" si="0"/>
+        <v>2.4166666666666665</v>
       </c>
       <c r="J7" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="7">
@@ -23520,38 +23611,39 @@
         <v>1</v>
       </c>
       <c r="I8" s="8">
-        <v>1.69</v>
+        <f t="shared" si="0"/>
+        <v>1.4615384615384615</v>
       </c>
       <c r="J8" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="E9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="F9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="G9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="H9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="36">
+      <c r="I9" s="37">
         <v>15</v>
       </c>
       <c r="J9" s="4">
@@ -23559,49 +23651,66 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="33">
         <v>20</v>
       </c>
       <c r="J10" s="5">
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="31">
+        <v>2</v>
+      </c>
+      <c r="E11" s="31">
+        <v>3</v>
+      </c>
+      <c r="F11" s="31">
+        <v>4</v>
+      </c>
+      <c r="G11" s="31">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:I9"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:I9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23634,32 +23743,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -23667,17 +23776,17 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="37">
         <v>7</v>
       </c>
       <c r="C5" s="4">
@@ -23685,10 +23794,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="33">
         <v>28</v>
       </c>
       <c r="C6" s="5">
@@ -23814,7 +23923,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -23825,16 +23934,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -23842,24 +23951,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -23870,10 +23979,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2">
@@ -23884,10 +23993,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2">
@@ -23898,10 +24007,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2">
@@ -23912,10 +24021,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2">
@@ -23926,10 +24035,10 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
@@ -23940,10 +24049,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2">
@@ -23954,10 +24063,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2">
@@ -23968,10 +24077,10 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2">
@@ -23982,13 +24091,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="37">
         <v>1</v>
       </c>
       <c r="D12" s="4">
@@ -23996,13 +24105,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33">
         <v>34</v>
       </c>
       <c r="D13" s="5">
@@ -24011,6 +24120,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -24019,11 +24133,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24056,16 +24165,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -24073,24 +24182,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -24101,10 +24210,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2">
@@ -24115,10 +24224,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2">
@@ -24129,10 +24238,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2">
@@ -24143,10 +24252,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2">
@@ -24157,10 +24266,10 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="2">
@@ -24171,10 +24280,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2">
@@ -24185,10 +24294,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2">
@@ -24199,10 +24308,10 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="2">
@@ -24213,13 +24322,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="37">
         <v>1</v>
       </c>
       <c r="D12" s="4">
@@ -24227,13 +24336,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33">
         <v>34</v>
       </c>
       <c r="D13" s="5">
@@ -24242,6 +24351,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -24250,11 +24364,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24276,7 +24385,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -24287,16 +24396,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -24304,24 +24413,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -24332,10 +24441,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2">
@@ -24346,10 +24455,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2">
@@ -24360,13 +24469,13 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="37">
         <v>1</v>
       </c>
       <c r="D6" s="4">
@@ -24374,13 +24483,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="33">
         <v>34</v>
       </c>
       <c r="D7" s="5">
@@ -24416,7 +24525,7 @@
   </sheetPr>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
@@ -24428,58 +24537,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
@@ -24487,66 +24596,66 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -24599,10 +24708,10 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="7">
@@ -24655,10 +24764,10 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="7">
@@ -24711,10 +24820,10 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="7">
@@ -24767,10 +24876,10 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="7">
@@ -24823,10 +24932,10 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="7">
@@ -24879,10 +24988,10 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="7">
@@ -24935,10 +25044,10 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="7">
@@ -24991,10 +25100,10 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="7">
@@ -25047,10 +25156,10 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="7">
@@ -25103,10 +25212,10 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="7">
@@ -25159,10 +25268,10 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="7">
@@ -25215,10 +25324,10 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="7">
@@ -25271,10 +25380,10 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="7">
@@ -25327,55 +25436,55 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="36" t="s">
+      <c r="P17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="37">
         <v>1</v>
       </c>
       <c r="R17" s="4">
@@ -25383,55 +25492,55 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="32" t="s">
+      <c r="M18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="32" t="s">
+      <c r="N18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="33">
         <v>34</v>
       </c>
       <c r="R18" s="5">
@@ -25440,6 +25549,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:B13"/>
@@ -25451,13 +25567,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A17:Q17"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25490,16 +25599,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -25507,24 +25616,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -25535,10 +25644,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2">
@@ -25549,10 +25658,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2">
@@ -25563,10 +25672,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="2">
@@ -25577,13 +25686,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>1</v>
       </c>
       <c r="D7" s="4">
@@ -25591,13 +25700,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33">
         <v>34</v>
       </c>
       <c r="D8" s="5">
@@ -25632,10 +25741,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -25646,34 +25755,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
@@ -25681,42 +25790,42 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="63.75" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -25745,10 +25854,10 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="7">
@@ -25770,113 +25879,117 @@
         <v>0</v>
       </c>
       <c r="I4" s="8">
+        <f>((C4*C$12)+(D4*$D$12)+(E4*E12)+(F4*$F$12)+(G4*$G$12))/SUM(C4:G4)</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" ref="I5:I9" si="0">((C5*C$12)+(D5*$D$12)+(E5*E13)+(F5*$F$12)+(G5*$G$12))/SUM(C5:G5)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>5</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>2</v>
-      </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="7">
@@ -25898,17 +26011,18 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="7">
@@ -25929,39 +26043,40 @@
       <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="8">
-        <v>0</v>
+      <c r="I9" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="37">
         <v>1</v>
       </c>
       <c r="J10" s="4">
@@ -25969,50 +26084,70 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="33">
         <v>34</v>
       </c>
       <c r="J11" s="5">
         <v>34</v>
       </c>
     </row>
+    <row r="12" spans="1:11">
+      <c r="C12" s="31">
+        <v>5</v>
+      </c>
+      <c r="D12" s="31">
+        <v>4</v>
+      </c>
+      <c r="E12" s="31">
+        <v>3</v>
+      </c>
+      <c r="F12" s="31">
+        <v>2</v>
+      </c>
+      <c r="G12" s="31">
+        <v>1</v>
+      </c>
+      <c r="H12" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/survey_data/SurveySummary_08192016.xlsx
+++ b/survey_data/SurveySummary_08192016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="33240" windowHeight="19200" tabRatio="768" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="33240" windowHeight="19200" tabRatio="768" firstSheet="24" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="Survey Tree Map" sheetId="56" r:id="rId1"/>
@@ -2062,11 +2062,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2079823976"/>
-        <c:axId val="-2080054952"/>
+        <c:axId val="-2073640872"/>
+        <c:axId val="-2073657736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2079823976"/>
+        <c:axId val="-2073640872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080054952"/>
+        <c:crossAx val="-2073657736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2111,7 +2111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080054952"/>
+        <c:axId val="-2073657736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079823976"/>
+        <c:crossAx val="-2073640872"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2865,11 +2865,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2092933080"/>
-        <c:axId val="-2075862952"/>
+        <c:axId val="-2073939736"/>
+        <c:axId val="-2073943128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2092933080"/>
+        <c:axId val="-2073939736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2904,7 +2904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075862952"/>
+        <c:crossAx val="-2073943128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2914,7 +2914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075862952"/>
+        <c:axId val="-2073943128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2959,7 +2959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092933080"/>
+        <c:crossAx val="-2073939736"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5208,11 +5208,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2081853208"/>
-        <c:axId val="-2081909496"/>
+        <c:axId val="-2085839896"/>
+        <c:axId val="-2085866456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2081853208"/>
+        <c:axId val="-2085839896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5247,7 +5247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081909496"/>
+        <c:crossAx val="-2085866456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5257,7 +5257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2081909496"/>
+        <c:axId val="-2085866456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5302,7 +5302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081853208"/>
+        <c:crossAx val="-2085839896"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5545,11 +5545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2085867032"/>
-        <c:axId val="-2080293000"/>
+        <c:axId val="-2086320968"/>
+        <c:axId val="-2086364184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2085867032"/>
+        <c:axId val="-2086320968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5584,7 +5584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080293000"/>
+        <c:crossAx val="-2086364184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5594,7 +5594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080293000"/>
+        <c:axId val="-2086364184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5639,7 +5639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085867032"/>
+        <c:crossAx val="-2086320968"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5822,11 +5822,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2096040632"/>
-        <c:axId val="-2086365416"/>
+        <c:axId val="-2086496440"/>
+        <c:axId val="-2086503704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2096040632"/>
+        <c:axId val="-2086496440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5861,7 +5861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086365416"/>
+        <c:crossAx val="-2086503704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5871,7 +5871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086365416"/>
+        <c:axId val="-2086503704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5916,7 +5916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096040632"/>
+        <c:crossAx val="-2086496440"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6386,11 +6386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2076630808"/>
-        <c:axId val="-2076607880"/>
+        <c:axId val="-2087289720"/>
+        <c:axId val="-2087102792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2076630808"/>
+        <c:axId val="-2087289720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6425,7 +6425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076607880"/>
+        <c:crossAx val="-2087102792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6435,7 +6435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2076607880"/>
+        <c:axId val="-2087102792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6480,7 +6480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076630808"/>
+        <c:crossAx val="-2087289720"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8580,11 +8580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2079347640"/>
-        <c:axId val="-2080064328"/>
+        <c:axId val="-2090134440"/>
+        <c:axId val="-2082330056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2079347640"/>
+        <c:axId val="-2090134440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8619,7 +8619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080064328"/>
+        <c:crossAx val="-2082330056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8629,7 +8629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080064328"/>
+        <c:axId val="-2082330056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8674,7 +8674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079347640"/>
+        <c:crossAx val="-2090134440"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8917,11 +8917,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2082123448"/>
-        <c:axId val="-2082120024"/>
+        <c:axId val="-2087633896"/>
+        <c:axId val="-2081841944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082123448"/>
+        <c:axId val="-2087633896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8956,7 +8956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082120024"/>
+        <c:crossAx val="-2081841944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8966,7 +8966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082120024"/>
+        <c:axId val="-2081841944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9011,7 +9011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082123448"/>
+        <c:crossAx val="-2087633896"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9194,11 +9194,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2082079320"/>
-        <c:axId val="-2082075928"/>
+        <c:axId val="-2082378664"/>
+        <c:axId val="-2082387976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082079320"/>
+        <c:axId val="-2082378664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9233,7 +9233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082075928"/>
+        <c:crossAx val="-2082387976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9243,7 +9243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082075928"/>
+        <c:axId val="-2082387976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9288,7 +9288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082079320"/>
+        <c:crossAx val="-2082378664"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9731,19 +9731,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.428571428571428</c:v>
+                  <c:v>2.571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.714285714285714</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.909090909090909</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.416666666666666</c:v>
+                  <c:v>2.083333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.461538461538461</c:v>
+                  <c:v>4.076923076923076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9758,11 +9758,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2082189528"/>
-        <c:axId val="-2082287352"/>
+        <c:axId val="-2090227976"/>
+        <c:axId val="-2081676424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082189528"/>
+        <c:axId val="-2090227976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9797,7 +9797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082287352"/>
+        <c:crossAx val="-2081676424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9807,7 +9807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082287352"/>
+        <c:axId val="-2081676424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9852,7 +9852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082189528"/>
+        <c:crossAx val="-2090227976"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10687,11 +10687,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2082252040"/>
-        <c:axId val="-2082248632"/>
+        <c:axId val="-2085400680"/>
+        <c:axId val="-2085406056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082252040"/>
+        <c:axId val="-2085400680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10726,7 +10726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082248632"/>
+        <c:crossAx val="-2085406056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10736,7 +10736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082248632"/>
+        <c:axId val="-2085406056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10781,7 +10781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082252040"/>
+        <c:crossAx val="-2085400680"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11236,11 +11236,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2082379672"/>
-        <c:axId val="-2082376264"/>
+        <c:axId val="-2080051752"/>
+        <c:axId val="-2080146712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082379672"/>
+        <c:axId val="-2080051752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11275,7 +11275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082376264"/>
+        <c:crossAx val="-2080146712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11285,7 +11285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082376264"/>
+        <c:axId val="-2080146712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11330,7 +11330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082379672"/>
+        <c:crossAx val="-2080051752"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14112,11 +14112,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -14125,6 +14120,11 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14340,11 +14340,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -14353,6 +14348,11 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15532,13 +15532,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:B13"/>
@@ -15550,6 +15543,13 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A17:Q17"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16304,17 +16304,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16684,11 +16684,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -16697,6 +16692,11 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16912,11 +16912,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -16925,6 +16920,11 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19253,13 +19253,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:B13"/>
@@ -19271,6 +19264,13 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A17:Q17"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20010,16 +20010,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20037,12 +20037,12 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9"/>
+    <tabColor theme="2" tint="-0.749992370372631"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -20236,11 +20236,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -20249,6 +20244,11 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20464,11 +20464,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -20477,6 +20472,11 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22826,13 +22826,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:B13"/>
@@ -22844,6 +22837,13 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A17:Q17"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23346,8 +23346,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -23480,7 +23480,7 @@
       </c>
       <c r="I4" s="8">
         <f>((C4*C$11)+(D4*$D$11)+(E4*E11)+(F4*$F$11)+(G4*$G$11))/SUM(C4:G4)</f>
-        <v>3.4285714285714284</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="J4" s="3">
         <v>15</v>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" ref="I5:I8" si="0">((C5*C$11)+(D5*$D$11)+(E5*E12)+(F5*$F$11)+(G5*$G$11))/SUM(C5:G5)</f>
-        <v>1.7142857142857142</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3">
         <v>15</v>
@@ -23546,7 +23546,7 @@
       </c>
       <c r="I6" s="8">
         <f t="shared" si="0"/>
-        <v>3.9090909090909092</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
         <v>15</v>
@@ -23579,7 +23579,7 @@
       </c>
       <c r="I7" s="8">
         <f t="shared" si="0"/>
-        <v>2.4166666666666665</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="J7" s="3">
         <v>15</v>
@@ -23612,7 +23612,7 @@
       </c>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
-        <v>1.4615384615384615</v>
+        <v>4.0769230769230766</v>
       </c>
       <c r="J8" s="3">
         <v>14</v>
@@ -23684,33 +23684,33 @@
     </row>
     <row r="11" spans="1:10">
       <c r="C11" s="31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="31">
         <v>3</v>
       </c>
       <c r="F11" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" s="31">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24120,11 +24120,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -24133,6 +24128,11 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24351,11 +24351,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
@@ -24364,6 +24359,11 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25549,13 +25549,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A13:B13"/>
@@ -25567,6 +25560,13 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A17:Q17"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25743,7 +25743,7 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -26137,17 +26137,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
